--- a/房贷还款明细.xlsx
+++ b/房贷还款明细.xlsx
@@ -651,6 +651,9 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -666,6 +669,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -676,21 +691,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1006,7 +1006,8 @@
   <dimension ref="A1:M244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G27"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="13.5"/>
@@ -1023,49 +1024,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="68" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="68" t="s">
+      <c r="F2" s="65"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="68" t="s">
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="69"/>
-      <c r="M2" s="71"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="67"/>
     </row>
     <row r="3" spans="1:13" ht="15" hidden="1">
-      <c r="A3" s="59"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -9077,7 +9078,8 @@
   <dimension ref="A1:M244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E27"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="13.5"/>
@@ -9093,49 +9095,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="63" t="s">
+      <c r="F2" s="69"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="64"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="63" t="s">
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="64"/>
-      <c r="M2" s="66"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="71"/>
     </row>
     <row r="3" spans="1:13" ht="15" hidden="1">
-      <c r="A3" s="59"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -17148,7 +17150,8 @@
   <dimension ref="A1:M329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G5:G28"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="13.5"/>
@@ -17168,21 +17171,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" thickBot="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1">
       <c r="A2" s="72" t="s">
@@ -27999,7 +28002,8 @@
   <dimension ref="A1:M328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G4:G27"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="13.5"/>
@@ -28018,49 +28022,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" thickBot="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="68" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="68" t="s">
+      <c r="F2" s="65"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="68" t="s">
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="69"/>
-      <c r="M2" s="71"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="67"/>
     </row>
     <row r="3" spans="1:13" ht="15" hidden="1">
-      <c r="A3" s="59"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
